--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="2031">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11542,23 +11542,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"prop_fish_frozen""</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_fish_lock"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -12344,6 +12327,14 @@
       </rPr>
       <t>0000</t>
     </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_frozen"</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_frozen"</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -13416,10 +13407,10 @@
   <dimension ref="A1:T525"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J505" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J484" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L525" sqref="L525"/>
+      <selection pane="bottomRight" activeCell="M390" sqref="M390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -32462,7 +32453,7 @@
         <v>1866</v>
       </c>
       <c r="D492" s="157" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E492" s="153" t="s">
         <v>1917</v>
@@ -33713,13 +33704,13 @@
         <v>1</v>
       </c>
       <c r="C525" s="170" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E525" s="169" t="s">
         <v>12</v>
       </c>
       <c r="F525" s="170" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G525" s="169">
         <v>21472</v>
@@ -33754,7 +33745,7 @@
   <dimension ref="A1:K525"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F466" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H490" sqref="H490"/>
@@ -46228,7 +46219,7 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="155">
@@ -46251,7 +46242,7 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="161" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G496" s="159"/>
       <c r="H496" s="155">
@@ -46274,7 +46265,7 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="155">
@@ -46297,7 +46288,7 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G498" s="159"/>
       <c r="H498" s="155">
@@ -46320,7 +46311,7 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="155">
@@ -46343,7 +46334,7 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="155">
@@ -46366,7 +46357,7 @@
       </c>
       <c r="E501" s="155"/>
       <c r="F501" s="161" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G501" s="159"/>
       <c r="H501" s="155">
@@ -46389,7 +46380,7 @@
       </c>
       <c r="E502" s="155"/>
       <c r="F502" s="161" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G502" s="159"/>
       <c r="H502" s="155">
@@ -46412,7 +46403,7 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="155">
@@ -46435,7 +46426,7 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="155">
@@ -46458,7 +46449,7 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="155">
@@ -46481,7 +46472,7 @@
       </c>
       <c r="E506" s="155"/>
       <c r="F506" s="161" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G506" s="159"/>
       <c r="H506" s="155">
@@ -46504,7 +46495,7 @@
       </c>
       <c r="E507" s="155"/>
       <c r="F507" s="161" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G507" s="159"/>
       <c r="H507" s="155">
@@ -46527,7 +46518,7 @@
       </c>
       <c r="E508" s="155"/>
       <c r="F508" s="161" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G508" s="159"/>
       <c r="H508" s="155">
@@ -46550,7 +46541,7 @@
       </c>
       <c r="E509" s="155"/>
       <c r="F509" s="161" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="G509" s="159"/>
       <c r="H509" s="155">
@@ -46573,7 +46564,7 @@
       </c>
       <c r="E510" s="155"/>
       <c r="F510" s="161" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G510" s="159"/>
       <c r="H510" s="155">
@@ -46596,7 +46587,7 @@
       </c>
       <c r="E511" s="155"/>
       <c r="F511" s="161" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G511" s="159"/>
       <c r="H511" s="155">
@@ -46619,7 +46610,7 @@
       </c>
       <c r="E512" s="155"/>
       <c r="F512" s="161" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G512" s="159"/>
       <c r="H512" s="155">
@@ -46642,7 +46633,7 @@
       </c>
       <c r="E513" s="155"/>
       <c r="F513" s="161" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G513" s="159"/>
       <c r="H513" s="155">
@@ -46665,7 +46656,7 @@
       </c>
       <c r="E514" s="155"/>
       <c r="F514" s="161" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G514" s="159"/>
       <c r="H514" s="155">
@@ -46688,7 +46679,7 @@
       </c>
       <c r="E515" s="155"/>
       <c r="F515" s="161" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G515" s="159"/>
       <c r="H515" s="155">
@@ -46711,7 +46702,7 @@
       </c>
       <c r="E516" s="155"/>
       <c r="F516" s="161" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G516" s="159"/>
       <c r="H516" s="155">
@@ -46734,7 +46725,7 @@
       </c>
       <c r="E517" s="155"/>
       <c r="F517" s="161" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G517" s="159"/>
       <c r="H517" s="155">
@@ -46757,7 +46748,7 @@
       </c>
       <c r="E518" s="155"/>
       <c r="F518" s="161" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G518" s="159"/>
       <c r="H518" s="155">
@@ -46780,7 +46771,7 @@
       </c>
       <c r="E519" s="155"/>
       <c r="F519" s="161" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G519" s="159"/>
       <c r="H519" s="155">
@@ -46849,7 +46840,7 @@
       </c>
       <c r="E522" s="155"/>
       <c r="F522" s="161" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G522" s="159"/>
       <c r="H522" s="155">
@@ -46872,7 +46863,7 @@
       </c>
       <c r="E523" s="155"/>
       <c r="F523" s="161" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G523" s="159"/>
       <c r="H523" s="155">
@@ -46895,7 +46886,7 @@
       </c>
       <c r="E524" s="155"/>
       <c r="F524" s="161" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G524" s="159"/>
       <c r="H524" s="155">
@@ -46921,7 +46912,7 @@
   <dimension ref="A1:I723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A653" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D664" sqref="D664"/>
     </sheetView>
   </sheetViews>
@@ -56868,7 +56859,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -56896,7 +56887,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -56994,7 +56985,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D694" s="152">
         <v>0</v>
@@ -57008,7 +56999,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="157" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D695" s="152">
         <v>0</v>
@@ -57022,7 +57013,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="157" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -57036,7 +57027,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D697" s="152">
         <v>0</v>
@@ -57050,7 +57041,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D698" s="152">
         <v>0</v>
@@ -57134,7 +57125,7 @@
         <v>496</v>
       </c>
       <c r="C704" s="163" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D704" s="164">
         <v>352</v>
@@ -57148,7 +57139,7 @@
         <v>497</v>
       </c>
       <c r="C705" s="163" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D705" s="164">
         <v>353</v>
@@ -57162,7 +57153,7 @@
         <v>498</v>
       </c>
       <c r="C706" s="163" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D706" s="164">
         <v>354</v>
@@ -57176,7 +57167,7 @@
         <v>499</v>
       </c>
       <c r="C707" s="163" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D707" s="164">
         <v>355</v>
@@ -57190,7 +57181,7 @@
         <v>500</v>
       </c>
       <c r="C708" s="163" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D708" s="164">
         <v>356</v>
@@ -57204,7 +57195,7 @@
         <v>501</v>
       </c>
       <c r="C709" s="157" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D709" s="152">
         <v>357</v>
@@ -57218,7 +57209,7 @@
         <v>502</v>
       </c>
       <c r="C710" s="157" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D710" s="152">
         <v>358</v>
@@ -57232,7 +57223,7 @@
         <v>503</v>
       </c>
       <c r="C711" s="157" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D711" s="152">
         <v>359</v>
@@ -57246,7 +57237,7 @@
         <v>504</v>
       </c>
       <c r="C712" s="157" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D712" s="152">
         <v>360</v>
@@ -57260,7 +57251,7 @@
         <v>505</v>
       </c>
       <c r="C713" s="157" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D713" s="152">
         <v>361</v>
@@ -57274,7 +57265,7 @@
         <v>506</v>
       </c>
       <c r="C714" s="157" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D714" s="152">
         <v>362</v>
@@ -57288,7 +57279,7 @@
         <v>507</v>
       </c>
       <c r="C715" s="155" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D715" s="152">
         <v>363</v>
@@ -57302,7 +57293,7 @@
         <v>508</v>
       </c>
       <c r="C716" s="155" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D716" s="152">
         <v>364</v>
@@ -57316,7 +57307,7 @@
         <v>509</v>
       </c>
       <c r="C717" s="155" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D717" s="152">
         <v>365</v>
@@ -57330,7 +57321,7 @@
         <v>510</v>
       </c>
       <c r="C718" s="155" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D718" s="152">
         <v>366</v>
@@ -57344,7 +57335,7 @@
         <v>511</v>
       </c>
       <c r="C719" s="157" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D719" s="152">
         <v>367</v>
@@ -57358,7 +57349,7 @@
         <v>512</v>
       </c>
       <c r="C720" s="155" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D720" s="152">
         <v>368</v>
@@ -57386,7 +57377,7 @@
         <v>514</v>
       </c>
       <c r="C722" s="155" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D722" s="152">
         <v>370</v>
@@ -57400,7 +57391,7 @@
         <v>515</v>
       </c>
       <c r="C723" s="157" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D723" s="152">
         <v>371</v>
@@ -57418,11 +57409,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C467" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C452" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A495" sqref="A495"/>
+      <selection pane="bottomRight" activeCell="D471" sqref="D471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -64747,7 +64738,7 @@
         <v>1584</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -65896,7 +65887,7 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D461" s="144" t="s">
         <v>1853</v>
@@ -65914,7 +65905,7 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D462" s="144" t="s">
         <v>1854</v>
@@ -65932,7 +65923,7 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="D463" s="144" t="s">
         <v>1856</v>
@@ -65950,7 +65941,7 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D464" s="144" t="s">
         <v>1857</v>
@@ -66061,7 +66052,7 @@
         <v>731</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -66079,7 +66070,7 @@
         <v>731</v>
       </c>
       <c r="D471" s="162" t="s">
-        <v>1938</v>
+        <v>2030</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
@@ -66097,7 +66088,7 @@
         <v>731</v>
       </c>
       <c r="D472" s="162" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E472" s="155">
         <v>2</v>
@@ -66115,7 +66106,7 @@
         <v>731</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E473" s="155">
         <v>2</v>
@@ -66133,7 +66124,7 @@
         <v>731</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>1938</v>
+        <v>2029</v>
       </c>
       <c r="E474" s="155">
         <v>2</v>
@@ -66148,7 +66139,7 @@
         <v>352</v>
       </c>
       <c r="C475" s="163" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D475" s="166"/>
       <c r="E475" s="157">
@@ -66164,7 +66155,7 @@
         <v>353</v>
       </c>
       <c r="C476" s="163" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D476" s="166"/>
       <c r="E476" s="157">
@@ -66180,7 +66171,7 @@
         <v>354</v>
       </c>
       <c r="C477" s="163" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D477" s="166"/>
       <c r="E477" s="157">
@@ -66196,7 +66187,7 @@
         <v>355</v>
       </c>
       <c r="C478" s="163" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D478" s="166"/>
       <c r="E478" s="157">
@@ -66212,7 +66203,7 @@
         <v>356</v>
       </c>
       <c r="C479" s="163" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D479" s="166"/>
       <c r="E479" s="157">
@@ -66228,10 +66219,10 @@
         <v>357</v>
       </c>
       <c r="C480" s="157" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D480" s="162" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E480" s="155">
         <v>2</v>
@@ -66246,10 +66237,10 @@
         <v>358</v>
       </c>
       <c r="C481" s="157" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D481" s="160" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E481" s="155">
         <v>2</v>
@@ -66264,10 +66255,10 @@
         <v>359</v>
       </c>
       <c r="C482" s="157" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D482" s="160" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E482" s="155">
         <v>2</v>
@@ -66282,10 +66273,10 @@
         <v>360</v>
       </c>
       <c r="C483" s="157" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D483" s="160" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E483" s="155">
         <v>2</v>
@@ -66300,10 +66291,10 @@
         <v>361</v>
       </c>
       <c r="C484" s="157" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D484" s="160" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E484" s="155">
         <v>2</v>
@@ -66321,7 +66312,7 @@
         <v>680</v>
       </c>
       <c r="D485" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E485" s="155">
         <v>2</v>
@@ -66339,7 +66330,7 @@
         <v>680</v>
       </c>
       <c r="D486" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E486" s="155">
         <v>2</v>
@@ -66357,7 +66348,7 @@
         <v>680</v>
       </c>
       <c r="D487" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E487" s="155">
         <v>2</v>
@@ -66375,7 +66366,7 @@
         <v>680</v>
       </c>
       <c r="D488" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E488" s="155">
         <v>2</v>
@@ -66393,7 +66384,7 @@
         <v>680</v>
       </c>
       <c r="D489" s="160" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E489" s="155">
         <v>2</v>
@@ -66411,7 +66402,7 @@
         <v>718</v>
       </c>
       <c r="D490" s="162" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E490" s="155">
         <v>3</v>
@@ -66429,7 +66420,7 @@
         <v>718</v>
       </c>
       <c r="D491" s="162" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E491" s="155">
         <v>3</v>
@@ -66444,10 +66435,10 @@
         <v>368</v>
       </c>
       <c r="C492" s="157" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D492" s="162" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="E492" s="155">
         <v>3</v>
@@ -66462,10 +66453,10 @@
         <v>369</v>
       </c>
       <c r="C493" s="157" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D493" s="162" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E493" s="155">
         <v>3</v>
@@ -66480,7 +66471,7 @@
         <v>370</v>
       </c>
       <c r="C494" s="157" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D494" s="162" t="s">
         <v>1937</v>
@@ -66498,10 +66489,10 @@
         <v>370</v>
       </c>
       <c r="C495" s="157" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D495" s="162" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E495" s="155">
         <v>3</v>
@@ -66516,10 +66507,10 @@
         <v>371</v>
       </c>
       <c r="C496" s="157" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D496" s="162" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E496" s="155">
         <v>3</v>
@@ -66538,8 +66529,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1166" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D1116" sqref="D1116"/>
@@ -89226,7 +89217,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -89244,10 +89235,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -89268,7 +89259,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -89286,10 +89277,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1117" s="162" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -89310,7 +89301,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -89328,10 +89319,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -89352,7 +89343,7 @@
         <v>877</v>
       </c>
       <c r="E1120" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -89370,10 +89361,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -89394,7 +89385,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -89412,7 +89403,7 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1123" s="162" t="s">
         <v>1935</v>
@@ -89436,7 +89427,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -89454,10 +89445,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -89478,7 +89469,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -89496,7 +89487,7 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1127" s="162" t="s">
         <v>1935</v>
@@ -89520,7 +89511,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -89538,10 +89529,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -89562,7 +89553,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -89580,10 +89571,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -89604,7 +89595,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -89622,10 +89613,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -89646,7 +89637,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -89664,10 +89655,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -89688,7 +89679,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -89706,10 +89697,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -89730,7 +89721,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -89748,10 +89739,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -89772,7 +89763,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -89790,7 +89781,7 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1141" s="162" t="s">
         <v>1935</v>
@@ -89814,7 +89805,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -89832,7 +89823,7 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1143" s="162" t="s">
         <v>1935</v>
@@ -89856,7 +89847,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -89874,10 +89865,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -89898,7 +89889,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -89916,7 +89907,7 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1147" s="162" t="s">
         <v>1935</v>
@@ -89940,7 +89931,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -89958,10 +89949,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -89982,7 +89973,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -90000,10 +89991,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -90024,7 +90015,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -90042,10 +90033,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -90066,7 +90057,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -90084,10 +90075,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -90108,7 +90099,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -90126,10 +90117,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -90150,7 +90141,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -90168,10 +90159,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -90192,7 +90183,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -90210,10 +90201,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -90234,7 +90225,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -90252,10 +90243,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -90276,7 +90267,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -90294,10 +90285,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -90318,7 +90309,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -90336,7 +90327,7 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1167" s="162" t="s">
         <v>1935</v>
@@ -90360,7 +90351,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -90378,10 +90369,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -90402,7 +90393,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -90420,10 +90411,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -90444,7 +90435,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -90462,10 +90453,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -90486,7 +90477,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -90504,10 +90495,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -90528,7 +90519,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -90546,10 +90537,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -90570,7 +90561,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -90588,10 +90579,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -90612,7 +90603,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -90630,10 +90621,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -90654,7 +90645,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -90672,10 +90663,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -11542,14 +11542,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_fish_lock"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_3d_fish_summon_fish"</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -12330,11 +12322,19 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_fish_frozen"</t>
+    <t>prop_fish_lock</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_fish_frozen"</t>
+    <t>prop_fish_frozen</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fish_frozen</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -32453,7 +32453,7 @@
         <v>1866</v>
       </c>
       <c r="D492" s="157" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="E492" s="153" t="s">
         <v>1917</v>
@@ -33704,13 +33704,13 @@
         <v>1</v>
       </c>
       <c r="C525" s="170" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E525" s="169" t="s">
         <v>12</v>
       </c>
       <c r="F525" s="170" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G525" s="169">
         <v>21472</v>
@@ -46219,7 +46219,7 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="155">
@@ -46242,7 +46242,7 @@
       </c>
       <c r="E496" s="155"/>
       <c r="F496" s="161" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="G496" s="159"/>
       <c r="H496" s="155">
@@ -46265,7 +46265,7 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="155">
@@ -46288,7 +46288,7 @@
       </c>
       <c r="E498" s="155"/>
       <c r="F498" s="161" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="G498" s="159"/>
       <c r="H498" s="155">
@@ -46311,7 +46311,7 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="155">
@@ -46334,7 +46334,7 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="155">
@@ -46357,7 +46357,7 @@
       </c>
       <c r="E501" s="155"/>
       <c r="F501" s="161" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G501" s="159"/>
       <c r="H501" s="155">
@@ -46380,7 +46380,7 @@
       </c>
       <c r="E502" s="155"/>
       <c r="F502" s="161" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G502" s="159"/>
       <c r="H502" s="155">
@@ -46403,7 +46403,7 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="155">
@@ -46426,7 +46426,7 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="155">
@@ -46449,7 +46449,7 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="155">
@@ -46472,7 +46472,7 @@
       </c>
       <c r="E506" s="155"/>
       <c r="F506" s="161" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="G506" s="159"/>
       <c r="H506" s="155">
@@ -46495,7 +46495,7 @@
       </c>
       <c r="E507" s="155"/>
       <c r="F507" s="161" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="G507" s="159"/>
       <c r="H507" s="155">
@@ -46518,7 +46518,7 @@
       </c>
       <c r="E508" s="155"/>
       <c r="F508" s="161" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="G508" s="159"/>
       <c r="H508" s="155">
@@ -46541,7 +46541,7 @@
       </c>
       <c r="E509" s="155"/>
       <c r="F509" s="161" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="G509" s="159"/>
       <c r="H509" s="155">
@@ -46564,7 +46564,7 @@
       </c>
       <c r="E510" s="155"/>
       <c r="F510" s="161" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="G510" s="159"/>
       <c r="H510" s="155">
@@ -46587,7 +46587,7 @@
       </c>
       <c r="E511" s="155"/>
       <c r="F511" s="161" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="G511" s="159"/>
       <c r="H511" s="155">
@@ -46610,7 +46610,7 @@
       </c>
       <c r="E512" s="155"/>
       <c r="F512" s="161" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="G512" s="159"/>
       <c r="H512" s="155">
@@ -46633,7 +46633,7 @@
       </c>
       <c r="E513" s="155"/>
       <c r="F513" s="161" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="G513" s="159"/>
       <c r="H513" s="155">
@@ -46656,7 +46656,7 @@
       </c>
       <c r="E514" s="155"/>
       <c r="F514" s="161" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="G514" s="159"/>
       <c r="H514" s="155">
@@ -46679,7 +46679,7 @@
       </c>
       <c r="E515" s="155"/>
       <c r="F515" s="161" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="G515" s="159"/>
       <c r="H515" s="155">
@@ -46702,7 +46702,7 @@
       </c>
       <c r="E516" s="155"/>
       <c r="F516" s="161" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G516" s="159"/>
       <c r="H516" s="155">
@@ -46725,7 +46725,7 @@
       </c>
       <c r="E517" s="155"/>
       <c r="F517" s="161" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="G517" s="159"/>
       <c r="H517" s="155">
@@ -46748,7 +46748,7 @@
       </c>
       <c r="E518" s="155"/>
       <c r="F518" s="161" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="G518" s="159"/>
       <c r="H518" s="155">
@@ -46771,7 +46771,7 @@
       </c>
       <c r="E519" s="155"/>
       <c r="F519" s="161" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="G519" s="159"/>
       <c r="H519" s="155">
@@ -46840,7 +46840,7 @@
       </c>
       <c r="E522" s="155"/>
       <c r="F522" s="161" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G522" s="159"/>
       <c r="H522" s="155">
@@ -46863,7 +46863,7 @@
       </c>
       <c r="E523" s="155"/>
       <c r="F523" s="161" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G523" s="159"/>
       <c r="H523" s="155">
@@ -46886,7 +46886,7 @@
       </c>
       <c r="E524" s="155"/>
       <c r="F524" s="161" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="G524" s="159"/>
       <c r="H524" s="155">
@@ -56859,7 +56859,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -56887,7 +56887,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -56985,7 +56985,7 @@
         <v>486</v>
       </c>
       <c r="C694" s="157" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D694" s="152">
         <v>0</v>
@@ -56999,7 +56999,7 @@
         <v>487</v>
       </c>
       <c r="C695" s="157" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D695" s="152">
         <v>0</v>
@@ -57013,7 +57013,7 @@
         <v>488</v>
       </c>
       <c r="C696" s="157" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D696" s="152">
         <v>0</v>
@@ -57027,7 +57027,7 @@
         <v>489</v>
       </c>
       <c r="C697" s="157" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D697" s="152">
         <v>0</v>
@@ -57041,7 +57041,7 @@
         <v>490</v>
       </c>
       <c r="C698" s="157" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D698" s="152">
         <v>0</v>
@@ -57125,7 +57125,7 @@
         <v>496</v>
       </c>
       <c r="C704" s="163" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="D704" s="164">
         <v>352</v>
@@ -57139,7 +57139,7 @@
         <v>497</v>
       </c>
       <c r="C705" s="163" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D705" s="164">
         <v>353</v>
@@ -57153,7 +57153,7 @@
         <v>498</v>
       </c>
       <c r="C706" s="163" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D706" s="164">
         <v>354</v>
@@ -57167,7 +57167,7 @@
         <v>499</v>
       </c>
       <c r="C707" s="163" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D707" s="164">
         <v>355</v>
@@ -57181,7 +57181,7 @@
         <v>500</v>
       </c>
       <c r="C708" s="163" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="D708" s="164">
         <v>356</v>
@@ -57195,7 +57195,7 @@
         <v>501</v>
       </c>
       <c r="C709" s="157" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D709" s="152">
         <v>357</v>
@@ -57209,7 +57209,7 @@
         <v>502</v>
       </c>
       <c r="C710" s="157" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D710" s="152">
         <v>358</v>
@@ -57223,7 +57223,7 @@
         <v>503</v>
       </c>
       <c r="C711" s="157" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D711" s="152">
         <v>359</v>
@@ -57237,7 +57237,7 @@
         <v>504</v>
       </c>
       <c r="C712" s="157" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D712" s="152">
         <v>360</v>
@@ -57251,7 +57251,7 @@
         <v>505</v>
       </c>
       <c r="C713" s="157" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D713" s="152">
         <v>361</v>
@@ -57265,7 +57265,7 @@
         <v>506</v>
       </c>
       <c r="C714" s="157" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D714" s="152">
         <v>362</v>
@@ -57279,7 +57279,7 @@
         <v>507</v>
       </c>
       <c r="C715" s="155" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D715" s="152">
         <v>363</v>
@@ -57293,7 +57293,7 @@
         <v>508</v>
       </c>
       <c r="C716" s="155" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D716" s="152">
         <v>364</v>
@@ -57307,7 +57307,7 @@
         <v>509</v>
       </c>
       <c r="C717" s="155" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D717" s="152">
         <v>365</v>
@@ -57321,7 +57321,7 @@
         <v>510</v>
       </c>
       <c r="C718" s="155" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D718" s="152">
         <v>366</v>
@@ -57335,7 +57335,7 @@
         <v>511</v>
       </c>
       <c r="C719" s="157" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="D719" s="152">
         <v>367</v>
@@ -57349,7 +57349,7 @@
         <v>512</v>
       </c>
       <c r="C720" s="155" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D720" s="152">
         <v>368</v>
@@ -57377,7 +57377,7 @@
         <v>514</v>
       </c>
       <c r="C722" s="155" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D722" s="152">
         <v>370</v>
@@ -57391,7 +57391,7 @@
         <v>515</v>
       </c>
       <c r="C723" s="157" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D723" s="152">
         <v>371</v>
@@ -57410,10 +57410,10 @@
   <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C452" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D471" sqref="D471"/>
+      <selection pane="bottomRight" activeCell="D474" sqref="D474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -64738,7 +64738,7 @@
         <v>1584</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -65887,7 +65887,7 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="D461" s="144" t="s">
         <v>1853</v>
@@ -65905,7 +65905,7 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D462" s="144" t="s">
         <v>1854</v>
@@ -65923,7 +65923,7 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D463" s="144" t="s">
         <v>1856</v>
@@ -65941,7 +65941,7 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="D464" s="144" t="s">
         <v>1857</v>
@@ -66052,7 +66052,7 @@
         <v>731</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>1938</v>
+        <v>2027</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -66070,7 +66070,7 @@
         <v>731</v>
       </c>
       <c r="D471" s="162" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
@@ -66088,7 +66088,7 @@
         <v>731</v>
       </c>
       <c r="D472" s="162" t="s">
-        <v>1939</v>
+        <v>2029</v>
       </c>
       <c r="E472" s="155">
         <v>2</v>
@@ -66106,7 +66106,7 @@
         <v>731</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>1938</v>
+        <v>2027</v>
       </c>
       <c r="E473" s="155">
         <v>2</v>
@@ -66124,7 +66124,7 @@
         <v>731</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="E474" s="155">
         <v>2</v>
@@ -66139,7 +66139,7 @@
         <v>352</v>
       </c>
       <c r="C475" s="163" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="D475" s="166"/>
       <c r="E475" s="157">
@@ -66155,7 +66155,7 @@
         <v>353</v>
       </c>
       <c r="C476" s="163" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="D476" s="166"/>
       <c r="E476" s="157">
@@ -66171,7 +66171,7 @@
         <v>354</v>
       </c>
       <c r="C477" s="163" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D477" s="166"/>
       <c r="E477" s="157">
@@ -66187,7 +66187,7 @@
         <v>355</v>
       </c>
       <c r="C478" s="163" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D478" s="166"/>
       <c r="E478" s="157">
@@ -66203,7 +66203,7 @@
         <v>356</v>
       </c>
       <c r="C479" s="163" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="D479" s="166"/>
       <c r="E479" s="157">
@@ -66219,10 +66219,10 @@
         <v>357</v>
       </c>
       <c r="C480" s="157" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D480" s="162" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="E480" s="155">
         <v>2</v>
@@ -66237,10 +66237,10 @@
         <v>358</v>
       </c>
       <c r="C481" s="157" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D481" s="160" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E481" s="155">
         <v>2</v>
@@ -66255,10 +66255,10 @@
         <v>359</v>
       </c>
       <c r="C482" s="157" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D482" s="160" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E482" s="155">
         <v>2</v>
@@ -66273,10 +66273,10 @@
         <v>360</v>
       </c>
       <c r="C483" s="157" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D483" s="160" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E483" s="155">
         <v>2</v>
@@ -66291,10 +66291,10 @@
         <v>361</v>
       </c>
       <c r="C484" s="157" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D484" s="160" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="E484" s="155">
         <v>2</v>
@@ -66312,7 +66312,7 @@
         <v>680</v>
       </c>
       <c r="D485" s="160" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E485" s="155">
         <v>2</v>
@@ -66330,7 +66330,7 @@
         <v>680</v>
       </c>
       <c r="D486" s="160" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E486" s="155">
         <v>2</v>
@@ -66348,7 +66348,7 @@
         <v>680</v>
       </c>
       <c r="D487" s="160" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E487" s="155">
         <v>2</v>
@@ -66366,7 +66366,7 @@
         <v>680</v>
       </c>
       <c r="D488" s="160" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E488" s="155">
         <v>2</v>
@@ -66384,7 +66384,7 @@
         <v>680</v>
       </c>
       <c r="D489" s="160" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="E489" s="155">
         <v>2</v>
@@ -66402,7 +66402,7 @@
         <v>718</v>
       </c>
       <c r="D490" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E490" s="155">
         <v>3</v>
@@ -66420,7 +66420,7 @@
         <v>718</v>
       </c>
       <c r="D491" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E491" s="155">
         <v>3</v>
@@ -66435,10 +66435,10 @@
         <v>368</v>
       </c>
       <c r="C492" s="157" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D492" s="162" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E492" s="155">
         <v>3</v>
@@ -66453,10 +66453,10 @@
         <v>369</v>
       </c>
       <c r="C493" s="157" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D493" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E493" s="155">
         <v>3</v>
@@ -66471,7 +66471,7 @@
         <v>370</v>
       </c>
       <c r="C494" s="157" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D494" s="162" t="s">
         <v>1937</v>
@@ -66489,10 +66489,10 @@
         <v>370</v>
       </c>
       <c r="C495" s="157" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="D495" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E495" s="155">
         <v>3</v>
@@ -66507,10 +66507,10 @@
         <v>371</v>
       </c>
       <c r="C496" s="157" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D496" s="162" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E496" s="155">
         <v>3</v>
@@ -89217,7 +89217,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -89235,10 +89235,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -89259,7 +89259,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -89277,10 +89277,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1117" s="162" t="s">
         <v>1996</v>
-      </c>
-      <c r="E1117" s="162" t="s">
-        <v>1998</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -89301,7 +89301,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -89319,10 +89319,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -89343,7 +89343,7 @@
         <v>877</v>
       </c>
       <c r="E1120" s="162" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F1120" s="155">
         <v>1</v>
@@ -89361,10 +89361,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -89385,7 +89385,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -89403,7 +89403,7 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1123" s="162" t="s">
         <v>1935</v>
@@ -89427,7 +89427,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -89445,10 +89445,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -89469,7 +89469,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -89487,7 +89487,7 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1127" s="162" t="s">
         <v>1935</v>
@@ -89511,7 +89511,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -89529,10 +89529,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -89553,7 +89553,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -89571,10 +89571,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -89595,7 +89595,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -89613,10 +89613,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -89637,7 +89637,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -89655,10 +89655,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -89679,7 +89679,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -89697,10 +89697,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -89721,7 +89721,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -89739,10 +89739,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -89763,7 +89763,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -89781,7 +89781,7 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1141" s="162" t="s">
         <v>1935</v>
@@ -89805,7 +89805,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -89823,7 +89823,7 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1143" s="162" t="s">
         <v>1935</v>
@@ -89847,7 +89847,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -89865,10 +89865,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -89889,7 +89889,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -89907,7 +89907,7 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1147" s="162" t="s">
         <v>1935</v>
@@ -89931,7 +89931,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -89949,10 +89949,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -89973,7 +89973,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -89991,10 +89991,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -90015,7 +90015,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -90033,10 +90033,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -90057,7 +90057,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -90075,10 +90075,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -90099,7 +90099,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -90117,10 +90117,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -90141,7 +90141,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -90159,10 +90159,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -90183,7 +90183,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -90201,10 +90201,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -90225,7 +90225,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -90243,10 +90243,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -90267,7 +90267,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -90285,10 +90285,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -90309,7 +90309,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -90327,7 +90327,7 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1167" s="162" t="s">
         <v>1935</v>
@@ -90351,7 +90351,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -90369,10 +90369,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -90393,7 +90393,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -90411,10 +90411,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -90435,7 +90435,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -90453,10 +90453,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -90477,7 +90477,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -90495,10 +90495,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -90519,7 +90519,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -90537,10 +90537,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -90561,7 +90561,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -90579,10 +90579,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -90603,7 +90603,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -90621,10 +90621,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -90645,7 +90645,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -90663,10 +90663,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6703" uniqueCount="2031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="2029">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11773,14 +11773,6 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐（积分换取）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -13406,11 +13398,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T525"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J484" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D502" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M390" sqref="M390"/>
+      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -33696,40 +33688,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" s="169" customFormat="1">
-      <c r="A525" s="169">
-        <v>1000114</v>
-      </c>
-      <c r="B525" s="169">
-        <v>1</v>
-      </c>
-      <c r="C525" s="170" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E525" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="F525" s="170" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G525" s="169">
-        <v>21472</v>
-      </c>
-      <c r="H525" s="169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I525" s="169">
-        <v>1</v>
-      </c>
-      <c r="J525" s="169">
-        <v>1604937600</v>
-      </c>
-      <c r="K525" s="169">
-        <v>32503651200</v>
-      </c>
-      <c r="L525" s="169">
-        <v>-1</v>
-      </c>
+    <row r="525" spans="1:12" s="169" customFormat="1" ht="13.5" customHeight="1">
+      <c r="C525" s="170"/>
+      <c r="F525" s="170"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -57409,8 +57370,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C461" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D474" sqref="D474"/>
@@ -66052,7 +66013,7 @@
         <v>731</v>
       </c>
       <c r="D470" s="162" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E470" s="155">
         <v>2</v>
@@ -66070,7 +66031,7 @@
         <v>731</v>
       </c>
       <c r="D471" s="162" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E471" s="155">
         <v>2</v>
@@ -66088,7 +66049,7 @@
         <v>731</v>
       </c>
       <c r="D472" s="162" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E472" s="155">
         <v>2</v>
@@ -66106,7 +66067,7 @@
         <v>731</v>
       </c>
       <c r="D473" s="162" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E473" s="155">
         <v>2</v>
@@ -66124,7 +66085,7 @@
         <v>731</v>
       </c>
       <c r="D474" s="162" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E474" s="155">
         <v>2</v>
@@ -89217,7 +89178,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -89235,7 +89196,7 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1115" s="162" t="s">
         <v>1971</v>
@@ -89259,7 +89220,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -89277,10 +89238,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1117" s="162" t="s">
         <v>1994</v>
-      </c>
-      <c r="E1117" s="162" t="s">
-        <v>1996</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -89301,7 +89262,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -89319,7 +89280,7 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1119" s="162" t="s">
         <v>1971</v>
@@ -89361,7 +89322,7 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1121" s="162" t="s">
         <v>1971</v>
@@ -89385,7 +89346,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -89403,7 +89364,7 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1123" s="162" t="s">
         <v>1935</v>
@@ -89427,7 +89388,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -89445,7 +89406,7 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1125" s="162" t="s">
         <v>1971</v>
@@ -89469,7 +89430,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -89487,7 +89448,7 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1127" s="162" t="s">
         <v>1935</v>
@@ -89511,7 +89472,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -89529,10 +89490,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -89553,7 +89514,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -89571,10 +89532,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -89595,7 +89556,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -89613,10 +89574,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -89637,7 +89598,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -89655,7 +89616,7 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1135" s="162" t="s">
         <v>1971</v>
@@ -89679,7 +89640,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -89697,7 +89658,7 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1137" s="162" t="s">
         <v>1971</v>
@@ -89721,7 +89682,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -89739,7 +89700,7 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1139" s="162" t="s">
         <v>1971</v>
@@ -89763,7 +89724,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -89781,7 +89742,7 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1141" s="162" t="s">
         <v>1935</v>
@@ -89805,7 +89766,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -89823,7 +89784,7 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1143" s="162" t="s">
         <v>1935</v>
@@ -89847,7 +89808,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -89865,7 +89826,7 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1145" s="162" t="s">
         <v>1971</v>
@@ -89889,7 +89850,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -89907,7 +89868,7 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1147" s="162" t="s">
         <v>1935</v>
@@ -89931,7 +89892,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -89949,10 +89910,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -89973,7 +89934,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -89991,10 +89952,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -90015,7 +89976,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -90033,10 +89994,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -90057,7 +90018,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -90075,10 +90036,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -90099,7 +90060,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -90117,10 +90078,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -90141,7 +90102,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -90159,10 +90120,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -90183,7 +90144,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -90201,10 +90162,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -90225,7 +90186,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -90243,10 +90204,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -90267,7 +90228,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -90285,10 +90246,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -90309,7 +90270,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -90327,7 +90288,7 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1167" s="162" t="s">
         <v>1935</v>
@@ -90351,7 +90312,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -90369,10 +90330,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -90393,7 +90354,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -90411,10 +90372,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -90435,7 +90396,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -90453,10 +90414,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -90477,7 +90438,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -90495,10 +90456,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -90519,7 +90480,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -90537,10 +90498,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -90561,7 +90522,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -90579,10 +90540,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -90603,7 +90564,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -90621,10 +90582,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -90645,7 +90606,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -90663,10 +90624,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="2044">
   <si>
     <t>id|任务id</t>
   </si>
@@ -12329,12 +12329,150 @@
     <t>prop_fish_frozen</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>新人七天乐总任务</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分兑换</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_player_seven_day_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,40,100,150,100,100</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>gun_barrel_6</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200‬</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0京东卡</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12439,6 +12577,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -12634,7 +12778,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -13112,6 +13256,28 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -13396,13 +13562,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T525"/>
+  <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D502" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D481" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C533" sqref="C533"/>
+      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -33688,9 +33854,46 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="525" spans="1:12" s="169" customFormat="1" ht="13.5" customHeight="1">
-      <c r="C525" s="170"/>
-      <c r="F525" s="170"/>
+    <row r="525" spans="1:12" s="170" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A525" s="170">
+        <v>1000114</v>
+      </c>
+      <c r="B525" s="170">
+        <v>1</v>
+      </c>
+      <c r="C525" s="170" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D525" s="170" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E525" s="170" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F525" s="171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G525" s="170">
+        <v>21472</v>
+      </c>
+      <c r="H525" s="170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I525" s="170">
+        <v>1</v>
+      </c>
+      <c r="J525" s="170">
+        <v>1604937600</v>
+      </c>
+      <c r="K525" s="170">
+        <v>32503651200</v>
+      </c>
+      <c r="L525" s="170">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
+      <c r="C526" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B367"/>
@@ -33706,10 +33909,10 @@
   <dimension ref="A1:K525"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F493" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C493" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H490" sqref="H490"/>
+      <selection pane="bottomRight" activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -46857,8 +47060,26 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="525" spans="1:9">
-      <c r="H525" s="11"/>
+    <row r="525" spans="1:9" s="174" customFormat="1">
+      <c r="A525" s="172">
+        <v>524</v>
+      </c>
+      <c r="B525" s="169">
+        <v>21472</v>
+      </c>
+      <c r="C525" s="172"/>
+      <c r="D525" s="172"/>
+      <c r="E525" s="172"/>
+      <c r="F525" s="175" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G525" s="173"/>
+      <c r="H525" s="178">
+        <v>7.72773774775776E+17</v>
+      </c>
+      <c r="I525" s="176" t="s">
+        <v>2033</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -46870,11 +47091,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I723"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A677" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D664" sqref="D664"/>
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C727" sqref="C727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57358,6 +57579,12 @@
         <v>371</v>
       </c>
     </row>
+    <row r="724" spans="1:4" s="6" customFormat="1">
+      <c r="A724" s="11"/>
+      <c r="B724" s="11"/>
+      <c r="C724" s="11"/>
+      <c r="D724" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -57371,10 +57598,10 @@
   <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C464" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C467" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D474" sqref="D474"/>
+      <selection pane="bottomRight" activeCell="C455" sqref="C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -66488,13 +66715,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:W1183"/>
+  <dimension ref="A1:W1189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1130" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1116" sqref="D1116"/>
+      <selection pane="bottomRight" activeCell="B1189" sqref="B1189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -74749,7 +74976,7 @@
         <v>795</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>758</v>
+        <v>2041</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -89073,7 +89300,7 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1809</v>
+        <v>2040</v>
       </c>
       <c r="E1109" s="64" t="s">
         <v>1813</v>
@@ -90635,6 +90862,132 @@
       <c r="G1183" s="155"/>
       <c r="H1183" s="155"/>
       <c r="I1183" s="155"/>
+    </row>
+    <row r="1184" spans="1:9" s="174" customFormat="1">
+      <c r="A1184" s="169">
+        <v>1183</v>
+      </c>
+      <c r="B1184" s="172">
+        <v>772</v>
+      </c>
+      <c r="C1184" s="172"/>
+      <c r="D1184" s="176" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1184" s="177" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1184" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="172"/>
+      <c r="H1184" s="172"/>
+      <c r="I1184" s="172"/>
+    </row>
+    <row r="1185" spans="1:9" s="174" customFormat="1">
+      <c r="A1185" s="169">
+        <v>1184</v>
+      </c>
+      <c r="B1185" s="172">
+        <v>773</v>
+      </c>
+      <c r="C1185" s="172"/>
+      <c r="D1185" s="176" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1185" s="177" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1185" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1185" s="172"/>
+      <c r="H1185" s="172"/>
+      <c r="I1185" s="172"/>
+    </row>
+    <row r="1186" spans="1:9" s="174" customFormat="1">
+      <c r="A1186" s="169">
+        <v>1185</v>
+      </c>
+      <c r="B1186" s="172">
+        <v>774</v>
+      </c>
+      <c r="C1186" s="172"/>
+      <c r="D1186" s="172" t="s">
+        <v>758</v>
+      </c>
+      <c r="E1186" s="177" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1186" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1186" s="172"/>
+      <c r="H1186" s="172"/>
+      <c r="I1186" s="172"/>
+    </row>
+    <row r="1187" spans="1:9" s="174" customFormat="1">
+      <c r="A1187" s="169">
+        <v>1186</v>
+      </c>
+      <c r="B1187" s="172">
+        <v>775</v>
+      </c>
+      <c r="C1187" s="172"/>
+      <c r="D1187" s="172" t="s">
+        <v>758</v>
+      </c>
+      <c r="E1187" s="177" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F1187" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1187" s="172"/>
+      <c r="H1187" s="172"/>
+      <c r="I1187" s="172"/>
+    </row>
+    <row r="1188" spans="1:9" s="174" customFormat="1">
+      <c r="A1188" s="169">
+        <v>1187</v>
+      </c>
+      <c r="B1188" s="172">
+        <v>776</v>
+      </c>
+      <c r="C1188" s="172"/>
+      <c r="D1188" s="172" t="s">
+        <v>758</v>
+      </c>
+      <c r="E1188" s="177" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1188" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1188" s="172"/>
+      <c r="H1188" s="172"/>
+      <c r="I1188" s="172"/>
+    </row>
+    <row r="1189" spans="1:9" s="174" customFormat="1">
+      <c r="A1189" s="169">
+        <v>1188</v>
+      </c>
+      <c r="B1189" s="172">
+        <v>777</v>
+      </c>
+      <c r="C1189" s="176" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1189" s="172"/>
+      <c r="E1189" s="177" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F1189" s="172">
+        <v>1</v>
+      </c>
+      <c r="G1189" s="172"/>
+      <c r="H1189" s="172"/>
+      <c r="I1189" s="172"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6718" uniqueCount="2045">
   <si>
     <t>id|任务id</t>
   </si>
@@ -12451,20 +12451,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0京东卡</t>
-    </r>
+    <t>prop_web_chip_huafei</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -66718,10 +66709,10 @@
   <dimension ref="A1:W1189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1189" sqref="B1189"/>
+      <selection pane="bottomRight" activeCell="E1193" sqref="E1193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -90975,12 +90966,12 @@
       <c r="B1189" s="172">
         <v>777</v>
       </c>
-      <c r="C1189" s="176" t="s">
+      <c r="C1189" s="176"/>
+      <c r="D1189" s="172" t="s">
         <v>2043</v>
       </c>
-      <c r="D1189" s="172"/>
       <c r="E1189" s="177" t="s">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="F1189" s="172">
         <v>1</v>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -11544,10 +11544,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>task_1000114</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -12316,6 +12312,9 @@
   <si>
     <t>task_award_receive</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000095</t>
   </si>
 </sst>
 </file>
@@ -13428,10 +13427,10 @@
   <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E476" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E491" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G490" sqref="G490"/>
+      <selection pane="bottomRight" activeCell="A506" sqref="A506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -32398,7 +32397,7 @@
         <v>1866</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E490" s="153" t="s">
         <v>1887</v>
@@ -32436,7 +32435,7 @@
         <v>1868</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E491" s="153" t="s">
         <v>1888</v>
@@ -32664,7 +32663,7 @@
         <v>1871</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="E497" s="153" t="s">
         <v>1891</v>
@@ -32740,7 +32739,7 @@
         <v>1872</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E499" s="153" t="s">
         <v>1893</v>
@@ -32778,7 +32777,7 @@
         <v>1874</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="E500" s="153" t="s">
         <v>1894</v>
@@ -33003,13 +33002,13 @@
         <v>1</v>
       </c>
       <c r="C506" s="169" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D506" s="169" t="s">
         <v>1968</v>
       </c>
-      <c r="D506" s="169" t="s">
+      <c r="E506" s="169" t="s">
         <v>1969</v>
-      </c>
-      <c r="E506" s="169" t="s">
-        <v>1970</v>
       </c>
       <c r="F506" s="170" t="s">
         <v>13</v>
@@ -33116,7 +33115,7 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C355" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F368" sqref="F368"/>
@@ -45475,7 +45474,7 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="161" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G490" s="159"/>
       <c r="H490" s="178">
@@ -45498,7 +45497,7 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="161" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G491" s="159"/>
       <c r="H491" s="178">
@@ -45636,7 +45635,7 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="178">
@@ -45682,7 +45681,7 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="178">
@@ -45705,7 +45704,7 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="178">
@@ -45841,14 +45840,14 @@
       <c r="D506" s="171"/>
       <c r="E506" s="171"/>
       <c r="F506" s="174" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G506" s="172"/>
       <c r="H506" s="177">
         <v>7.72773774775776E+17</v>
       </c>
       <c r="I506" s="175" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="507" spans="1:9" s="6" customFormat="1">
@@ -55977,7 +55976,7 @@
         <v>481</v>
       </c>
       <c r="C689" s="157" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D689" s="152">
         <v>0</v>
@@ -56117,7 +56116,7 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="D699" s="152">
         <v>0</v>
@@ -56259,7 +56258,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -64812,7 +64811,7 @@
         <v>731</v>
       </c>
       <c r="D465" s="162" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E465" s="155">
         <v>2</v>
@@ -64830,7 +64829,7 @@
         <v>731</v>
       </c>
       <c r="D466" s="162" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -64848,7 +64847,7 @@
         <v>731</v>
       </c>
       <c r="D467" s="162" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -64866,7 +64865,7 @@
         <v>731</v>
       </c>
       <c r="D468" s="162" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -64884,7 +64883,7 @@
         <v>731</v>
       </c>
       <c r="D469" s="162" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
@@ -65090,11 +65089,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W1189"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1162" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1123" sqref="B1123"/>
+      <selection pane="bottomRight" activeCell="D1123" sqref="D1123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -73349,7 +73348,7 @@
         <v>795</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -87673,7 +87672,7 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E1109" s="64" t="s">
         <v>1813</v>
@@ -87796,7 +87795,7 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1115" s="162" t="s">
         <v>1913</v>
@@ -87820,7 +87819,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -87838,10 +87837,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1117" s="162" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -87862,7 +87861,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -87880,7 +87879,7 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1119" s="162" t="s">
         <v>1913</v>
@@ -87922,7 +87921,7 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1121" s="162" t="s">
         <v>1913</v>
@@ -87946,7 +87945,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -87964,7 +87963,7 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1123" s="162" t="s">
         <v>1897</v>
@@ -87988,7 +87987,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -88006,7 +88005,7 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1125" s="162" t="s">
         <v>1913</v>
@@ -88030,7 +88029,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -88048,7 +88047,7 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1127" s="162" t="s">
         <v>1897</v>
@@ -88072,7 +88071,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -88090,10 +88089,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -88114,7 +88113,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -88132,10 +88131,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -88156,7 +88155,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -88174,10 +88173,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -88216,7 +88215,7 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1135" s="162" t="s">
         <v>1913</v>
@@ -88258,7 +88257,7 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1137" s="162" t="s">
         <v>1913</v>
@@ -88300,7 +88299,7 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1139" s="162" t="s">
         <v>1913</v>
@@ -88324,7 +88323,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -88342,7 +88341,7 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1141" s="162" t="s">
         <v>1897</v>
@@ -88366,7 +88365,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -88384,7 +88383,7 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1143" s="162" t="s">
         <v>1897</v>
@@ -88408,7 +88407,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -88426,7 +88425,7 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1145" s="162" t="s">
         <v>1913</v>
@@ -88450,7 +88449,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -88468,7 +88467,7 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1147" s="162" t="s">
         <v>1897</v>
@@ -88492,7 +88491,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -88510,10 +88509,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -88534,7 +88533,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -88552,10 +88551,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -88576,7 +88575,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -88594,10 +88593,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -88618,7 +88617,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -88636,10 +88635,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -88660,7 +88659,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -88678,10 +88677,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -88702,7 +88701,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -88720,10 +88719,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -88744,7 +88743,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -88762,10 +88761,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -88786,7 +88785,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -88804,10 +88803,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -88828,7 +88827,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -88846,10 +88845,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -88870,7 +88869,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -88888,7 +88887,7 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1167" s="162" t="s">
         <v>1897</v>
@@ -88912,7 +88911,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -88930,10 +88929,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -88954,7 +88953,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -88972,10 +88971,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -88996,7 +88995,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -89014,10 +89013,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -89038,7 +89037,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -89056,10 +89055,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -89080,7 +89079,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -89098,10 +89097,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -89122,7 +89121,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -89140,10 +89139,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -89164,7 +89163,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -89182,10 +89181,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -89206,7 +89205,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -89224,10 +89223,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1931</v>
+        <v>1995</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -89245,10 +89244,10 @@
       </c>
       <c r="C1184" s="171"/>
       <c r="D1184" s="175" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1184" s="176" t="s">
         <v>1973</v>
-      </c>
-      <c r="E1184" s="176" t="s">
-        <v>1974</v>
       </c>
       <c r="F1184" s="171">
         <v>1</v>
@@ -89266,10 +89265,10 @@
       </c>
       <c r="C1185" s="171"/>
       <c r="D1185" s="175" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="E1185" s="176" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="F1185" s="171">
         <v>1</v>
@@ -89290,7 +89289,7 @@
         <v>758</v>
       </c>
       <c r="E1186" s="176" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F1186" s="171">
         <v>1</v>
@@ -89311,7 +89310,7 @@
         <v>758</v>
       </c>
       <c r="E1187" s="176" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="F1187" s="171">
         <v>1</v>
@@ -89332,7 +89331,7 @@
         <v>758</v>
       </c>
       <c r="E1188" s="176" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F1188" s="171">
         <v>1</v>
@@ -89350,10 +89349,10 @@
       </c>
       <c r="C1189" s="175"/>
       <c r="D1189" s="171" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E1189" s="176" t="s">
         <v>1982</v>
-      </c>
-      <c r="E1189" s="176" t="s">
-        <v>1983</v>
       </c>
       <c r="F1189" s="171">
         <v>1</v>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -13431,10 +13431,10 @@
   <dimension ref="A1:T526"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J482" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G488" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M493" sqref="M493"/>
+      <selection pane="bottomRight" activeCell="K506" sqref="K506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -32998,6 +32998,44 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="506" spans="1:12" s="169" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A506" s="169">
+        <v>1000095</v>
+      </c>
+      <c r="B506" s="169">
+        <v>1</v>
+      </c>
+      <c r="C506" s="169" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D506" s="169" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E506" s="169" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F506" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G506" s="169">
+        <v>21472</v>
+      </c>
+      <c r="H506" s="169" t="b">
+        <v>0</v>
+      </c>
+      <c r="I506" s="169">
+        <v>1</v>
+      </c>
+      <c r="J506" s="169">
+        <v>1604937600</v>
+      </c>
+      <c r="K506" s="169">
+        <v>32503651200</v>
+      </c>
+      <c r="L506" s="169">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="507" spans="1:12" s="12" customFormat="1" ht="16.5">
       <c r="C507" s="16"/>
       <c r="D507" s="180"/>
@@ -33022,87 +33060,49 @@
       <c r="E510" s="16"/>
       <c r="F510" s="179"/>
     </row>
-    <row r="513" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="513" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C513" s="16"/>
       <c r="D513" s="11"/>
       <c r="E513" s="16"/>
       <c r="F513" s="179"/>
     </row>
-    <row r="514" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="514" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C514" s="16"/>
       <c r="D514" s="11"/>
       <c r="E514" s="16"/>
       <c r="F514" s="179"/>
     </row>
-    <row r="515" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="515" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C515" s="16"/>
       <c r="D515" s="11"/>
       <c r="E515" s="16"/>
       <c r="F515" s="179"/>
     </row>
-    <row r="516" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="516" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C516" s="16"/>
       <c r="D516" s="11"/>
       <c r="E516" s="16"/>
       <c r="F516" s="179"/>
     </row>
-    <row r="517" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="517" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C517" s="16"/>
       <c r="D517" s="11"/>
       <c r="E517" s="16"/>
       <c r="F517" s="179"/>
     </row>
-    <row r="518" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="518" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C518" s="16"/>
       <c r="D518" s="11"/>
       <c r="E518" s="16"/>
       <c r="F518" s="179"/>
     </row>
-    <row r="519" spans="1:12" s="12" customFormat="1" ht="16.5">
+    <row r="519" spans="3:6" s="12" customFormat="1" ht="16.5">
       <c r="C519" s="16"/>
       <c r="D519" s="11"/>
       <c r="E519" s="16"/>
       <c r="F519" s="179"/>
     </row>
-    <row r="525" spans="1:12" s="169" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A525" s="169">
-        <v>1000114</v>
-      </c>
-      <c r="B525" s="169">
-        <v>1</v>
-      </c>
-      <c r="C525" s="169" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D525" s="169" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E525" s="169" t="s">
-        <v>1972</v>
-      </c>
-      <c r="F525" s="170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G525" s="169">
-        <v>21472</v>
-      </c>
-      <c r="H525" s="169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I525" s="169">
-        <v>1</v>
-      </c>
-      <c r="J525" s="169">
-        <v>1604937600</v>
-      </c>
-      <c r="K525" s="169">
-        <v>32503651200</v>
-      </c>
-      <c r="L525" s="169">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="3:6">
       <c r="C526" s="48"/>
     </row>
   </sheetData>
@@ -33116,13 +33116,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K525"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C481" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E481" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C493" sqref="C493"/>
+      <selection pane="bottomRight" activeCell="H506" sqref="H506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -45833,16 +45833,26 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="506" spans="1:9" s="6" customFormat="1">
-      <c r="A506" s="11"/>
-      <c r="B506" s="12"/>
-      <c r="C506" s="11"/>
-      <c r="D506" s="11"/>
-      <c r="E506" s="11"/>
-      <c r="F506" s="39"/>
-      <c r="G506" s="34"/>
-      <c r="H506" s="11"/>
-      <c r="I506" s="13"/>
+    <row r="506" spans="1:9" s="173" customFormat="1">
+      <c r="A506" s="171">
+        <v>505</v>
+      </c>
+      <c r="B506" s="168">
+        <v>21453</v>
+      </c>
+      <c r="C506" s="171"/>
+      <c r="D506" s="171"/>
+      <c r="E506" s="171"/>
+      <c r="F506" s="174" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G506" s="172"/>
+      <c r="H506" s="177">
+        <v>7.72773774775776E+17</v>
+      </c>
+      <c r="I506" s="175" t="s">
+        <v>1974</v>
+      </c>
     </row>
     <row r="507" spans="1:9" s="6" customFormat="1">
       <c r="A507" s="11"/>
@@ -45953,27 +45963,6 @@
       <c r="G519" s="34"/>
       <c r="H519" s="11"/>
       <c r="I519" s="13"/>
-    </row>
-    <row r="525" spans="1:9" s="173" customFormat="1">
-      <c r="A525" s="171">
-        <v>524</v>
-      </c>
-      <c r="B525" s="168">
-        <v>21472</v>
-      </c>
-      <c r="C525" s="171"/>
-      <c r="D525" s="171"/>
-      <c r="E525" s="171"/>
-      <c r="F525" s="174" t="s">
-        <v>1973</v>
-      </c>
-      <c r="G525" s="172"/>
-      <c r="H525" s="177">
-        <v>7.72773774775776E+17</v>
-      </c>
-      <c r="I525" s="175" t="s">
-        <v>1974</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -45988,7 +45977,7 @@
   <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B699" sqref="B699"/>
     </sheetView>
   </sheetViews>
@@ -65141,7 +65130,7 @@
   <dimension ref="A1:W1189"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B1123" sqref="B1123"/>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -13430,11 +13430,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G488" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E476" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K506" sqref="K506"/>
+      <selection pane="bottomRight" activeCell="H510" sqref="H510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -33018,7 +33018,7 @@
         <v>13</v>
       </c>
       <c r="G506" s="169">
-        <v>21472</v>
+        <v>21453</v>
       </c>
       <c r="H506" s="169" t="b">
         <v>0</v>
@@ -33118,11 +33118,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K519"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E481" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C472" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H506" sqref="H506"/>
+      <selection pane="bottomRight" activeCell="D506" sqref="D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -45977,8 +45977,8 @@
   <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B699" sqref="B699"/>
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A696" sqref="A696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -56263,10 +56263,10 @@
   <dimension ref="A1:M484"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C493" sqref="C493"/>
+      <selection pane="bottomRight" activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_11.10/task_zajindan_server.xlsx
+++ b/config_11.10/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6559" uniqueCount="1997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6555" uniqueCount="1996">
   <si>
     <t>id|任务id</t>
   </si>
@@ -11418,10 +11418,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>task_award_receive</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>21315</t>
     </r>
@@ -11437,9 +11433,6 @@
       <t>,21316,21317,21318</t>
     </r>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>21315,21316,21317,21318</t>
   </si>
   <si>
     <t>3</t>
@@ -12317,7 +12310,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3,6,8,10,13</t>
+    <t>player_level</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_award_receive</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -13430,11 +13427,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="E476" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H510" sqref="H510"/>
+      <selection pane="bottomRight" activeCell="G490" sqref="G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -32401,7 +32398,7 @@
         <v>1866</v>
       </c>
       <c r="D490" s="157" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="E490" s="153" t="s">
         <v>1887</v>
@@ -32439,7 +32436,7 @@
         <v>1868</v>
       </c>
       <c r="D491" s="156" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E491" s="153" t="s">
         <v>1888</v>
@@ -32667,7 +32664,7 @@
         <v>1871</v>
       </c>
       <c r="D497" s="156" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E497" s="153" t="s">
         <v>1891</v>
@@ -32743,7 +32740,7 @@
         <v>1872</v>
       </c>
       <c r="D499" s="157" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E499" s="153" t="s">
         <v>1893</v>
@@ -32781,7 +32778,7 @@
         <v>1874</v>
       </c>
       <c r="D500" s="157" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E500" s="153" t="s">
         <v>1894</v>
@@ -33006,13 +33003,13 @@
         <v>1</v>
       </c>
       <c r="C506" s="169" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D506" s="169" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E506" s="169" t="s">
         <v>1970</v>
-      </c>
-      <c r="D506" s="169" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E506" s="169" t="s">
-        <v>1972</v>
       </c>
       <c r="F506" s="170" t="s">
         <v>13</v>
@@ -33119,10 +33116,10 @@
   <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C472" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C355" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D506" sqref="D506"/>
+      <selection pane="bottomRight" activeCell="F368" sqref="F368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -45478,7 +45475,7 @@
       </c>
       <c r="E490" s="155"/>
       <c r="F490" s="161" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="G490" s="159"/>
       <c r="H490" s="178">
@@ -45501,7 +45498,7 @@
       </c>
       <c r="E491" s="155"/>
       <c r="F491" s="161" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="G491" s="159"/>
       <c r="H491" s="178">
@@ -45524,7 +45521,7 @@
       </c>
       <c r="E492" s="155"/>
       <c r="F492" s="161" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G492" s="159"/>
       <c r="H492" s="155">
@@ -45547,7 +45544,7 @@
       </c>
       <c r="E493" s="155"/>
       <c r="F493" s="161" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="G493" s="159"/>
       <c r="H493" s="155">
@@ -45570,7 +45567,7 @@
       </c>
       <c r="E494" s="155"/>
       <c r="F494" s="161" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G494" s="159"/>
       <c r="H494" s="155">
@@ -45593,7 +45590,7 @@
       </c>
       <c r="E495" s="155"/>
       <c r="F495" s="161" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="G495" s="159"/>
       <c r="H495" s="155">
@@ -45639,7 +45636,7 @@
       </c>
       <c r="E497" s="155"/>
       <c r="F497" s="161" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="G497" s="159"/>
       <c r="H497" s="178">
@@ -45685,7 +45682,7 @@
       </c>
       <c r="E499" s="155"/>
       <c r="F499" s="161" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G499" s="159"/>
       <c r="H499" s="178">
@@ -45708,7 +45705,7 @@
       </c>
       <c r="E500" s="155"/>
       <c r="F500" s="161" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G500" s="159"/>
       <c r="H500" s="178">
@@ -45777,7 +45774,7 @@
       </c>
       <c r="E503" s="155"/>
       <c r="F503" s="161" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G503" s="159"/>
       <c r="H503" s="155">
@@ -45800,7 +45797,7 @@
       </c>
       <c r="E504" s="155"/>
       <c r="F504" s="161" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G504" s="159"/>
       <c r="H504" s="155">
@@ -45823,7 +45820,7 @@
       </c>
       <c r="E505" s="155"/>
       <c r="F505" s="161" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="G505" s="159"/>
       <c r="H505" s="155">
@@ -45844,14 +45841,14 @@
       <c r="D506" s="171"/>
       <c r="E506" s="171"/>
       <c r="F506" s="174" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="G506" s="172"/>
       <c r="H506" s="177">
         <v>7.72773774775776E+17</v>
       </c>
       <c r="I506" s="175" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="507" spans="1:9" s="6" customFormat="1">
@@ -45977,8 +45974,8 @@
   <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A696" sqref="A696"/>
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B700" sqref="B700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55924,7 +55921,7 @@
         <v>477</v>
       </c>
       <c r="C685" s="143" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D685" s="139">
         <v>338</v>
@@ -55952,7 +55949,7 @@
         <v>479</v>
       </c>
       <c r="C687" s="143" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D687" s="139">
         <v>340</v>
@@ -55979,11 +55976,11 @@
       <c r="B689" s="155">
         <v>481</v>
       </c>
-      <c r="C689" s="155" t="s">
-        <v>418</v>
+      <c r="C689" s="157" t="s">
+        <v>1994</v>
       </c>
       <c r="D689" s="152">
-        <v>342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:4" s="154" customFormat="1">
@@ -56011,7 +56008,7 @@
         <v>614</v>
       </c>
       <c r="D691" s="152">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="692" spans="1:4" s="154" customFormat="1">
@@ -56025,7 +56022,7 @@
         <v>614</v>
       </c>
       <c r="D692" s="152">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="693" spans="1:4" s="154" customFormat="1">
@@ -56039,7 +56036,7 @@
         <v>614</v>
       </c>
       <c r="D693" s="152">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="694" spans="1:4" s="154" customFormat="1">
@@ -56053,7 +56050,7 @@
         <v>614</v>
       </c>
       <c r="D694" s="152">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="695" spans="1:4" s="154" customFormat="1">
@@ -56067,7 +56064,7 @@
         <v>614</v>
       </c>
       <c r="D695" s="152">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="696" spans="1:4" s="164" customFormat="1">
@@ -56081,7 +56078,7 @@
         <v>1906</v>
       </c>
       <c r="D696" s="152">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="697" spans="1:4" s="154" customFormat="1">
@@ -56095,7 +56092,7 @@
         <v>1903</v>
       </c>
       <c r="D697" s="152">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="698" spans="1:4" s="154" customFormat="1">
@@ -56109,7 +56106,7 @@
         <v>1903</v>
       </c>
       <c r="D698" s="152">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="699" spans="1:4" s="154" customFormat="1">
@@ -56120,10 +56117,10 @@
         <v>491</v>
       </c>
       <c r="C699" s="157" t="s">
-        <v>1909</v>
+        <v>1995</v>
       </c>
       <c r="D699" s="152">
-        <v>351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:4" s="154" customFormat="1">
@@ -56134,10 +56131,10 @@
         <v>492</v>
       </c>
       <c r="C700" s="157" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D700" s="152">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="701" spans="1:4" s="154" customFormat="1">
@@ -56148,10 +56145,10 @@
         <v>493</v>
       </c>
       <c r="C701" s="155" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D701" s="152">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="702" spans="1:4" s="154" customFormat="1">
@@ -56165,7 +56162,7 @@
         <v>1855</v>
       </c>
       <c r="D702" s="152">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="703" spans="1:4" s="154" customFormat="1">
@@ -56176,10 +56173,10 @@
         <v>495</v>
       </c>
       <c r="C703" s="155" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D703" s="152">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="704" spans="1:4" s="154" customFormat="1">
@@ -56190,10 +56187,10 @@
         <v>496</v>
       </c>
       <c r="C704" s="157" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D704" s="152">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="708" spans="1:4" s="183" customFormat="1">
@@ -56262,11 +56259,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M484"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B493" sqref="B493"/>
+      <selection pane="bottomRight" activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -63591,7 +63588,7 @@
         <v>1584</v>
       </c>
       <c r="D394" s="15" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E394" s="11">
         <v>2</v>
@@ -64740,7 +64737,7 @@
         <v>339</v>
       </c>
       <c r="C461" s="143" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D461" s="144" t="s">
         <v>1853</v>
@@ -64758,7 +64755,7 @@
         <v>339</v>
       </c>
       <c r="C462" s="143" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D462" s="144" t="s">
         <v>1854</v>
@@ -64776,7 +64773,7 @@
         <v>340</v>
       </c>
       <c r="C463" s="143" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D463" s="144" t="s">
         <v>1856</v>
@@ -64794,7 +64791,7 @@
         <v>341</v>
       </c>
       <c r="C464" s="143" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="D464" s="144" t="s">
         <v>1857</v>
@@ -64812,13 +64809,13 @@
         <v>342</v>
       </c>
       <c r="C465" s="155" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="D465" s="162" t="s">
-        <v>1996</v>
+        <v>1964</v>
       </c>
       <c r="E465" s="155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F465" s="155"/>
     </row>
@@ -64833,7 +64830,7 @@
         <v>731</v>
       </c>
       <c r="D466" s="162" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E466" s="155">
         <v>2</v>
@@ -64851,7 +64848,7 @@
         <v>731</v>
       </c>
       <c r="D467" s="162" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E467" s="155">
         <v>2</v>
@@ -64869,7 +64866,7 @@
         <v>731</v>
       </c>
       <c r="D468" s="162" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="E468" s="155">
         <v>2</v>
@@ -64887,46 +64884,46 @@
         <v>731</v>
       </c>
       <c r="D469" s="162" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="E469" s="155">
         <v>2</v>
       </c>
       <c r="F469" s="155"/>
     </row>
-    <row r="470" spans="1:6" s="154" customFormat="1">
+    <row r="470" spans="1:6" s="164" customFormat="1">
       <c r="A470" s="152">
         <v>499</v>
       </c>
       <c r="B470" s="152">
         <v>347</v>
       </c>
-      <c r="C470" s="155" t="s">
-        <v>731</v>
-      </c>
-      <c r="D470" s="162" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E470" s="155">
+      <c r="C470" s="163" t="s">
+        <v>1905</v>
+      </c>
+      <c r="D470" s="165"/>
+      <c r="E470" s="157">
         <v>2</v>
       </c>
-      <c r="F470" s="155"/>
-    </row>
-    <row r="471" spans="1:6" s="164" customFormat="1">
+      <c r="F470" s="163"/>
+    </row>
+    <row r="471" spans="1:6" s="154" customFormat="1">
       <c r="A471" s="152">
         <v>500</v>
       </c>
       <c r="B471" s="152">
         <v>348</v>
       </c>
-      <c r="C471" s="163" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D471" s="165"/>
-      <c r="E471" s="157">
+      <c r="C471" s="157" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D471" s="162" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E471" s="155">
         <v>2</v>
       </c>
-      <c r="F471" s="163"/>
+      <c r="F471" s="155"/>
     </row>
     <row r="472" spans="1:6" s="154" customFormat="1">
       <c r="A472" s="152">
@@ -64938,8 +64935,8 @@
       <c r="C472" s="157" t="s">
         <v>1904</v>
       </c>
-      <c r="D472" s="162" t="s">
-        <v>1908</v>
+      <c r="D472" s="160" t="s">
+        <v>1907</v>
       </c>
       <c r="E472" s="155">
         <v>2</v>
@@ -64953,14 +64950,14 @@
       <c r="B473" s="152">
         <v>350</v>
       </c>
-      <c r="C473" s="157" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D473" s="160" t="s">
-        <v>1907</v>
+      <c r="C473" s="155" t="s">
+        <v>718</v>
+      </c>
+      <c r="D473" s="162" t="s">
+        <v>1928</v>
       </c>
       <c r="E473" s="155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F473" s="155"/>
     </row>
@@ -64972,13 +64969,13 @@
         <v>351</v>
       </c>
       <c r="C474" s="155" t="s">
-        <v>680</v>
-      </c>
-      <c r="D474" s="160" t="s">
-        <v>1911</v>
+        <v>718</v>
+      </c>
+      <c r="D474" s="162" t="s">
+        <v>1928</v>
       </c>
       <c r="E474" s="155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F474" s="155"/>
     </row>
@@ -64989,11 +64986,11 @@
       <c r="B475" s="152">
         <v>352</v>
       </c>
-      <c r="C475" s="155" t="s">
-        <v>718</v>
+      <c r="C475" s="157" t="s">
+        <v>1924</v>
       </c>
       <c r="D475" s="162" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E475" s="155">
         <v>3</v>
@@ -65007,11 +65004,11 @@
       <c r="B476" s="152">
         <v>353</v>
       </c>
-      <c r="C476" s="155" t="s">
-        <v>718</v>
+      <c r="C476" s="157" t="s">
+        <v>1920</v>
       </c>
       <c r="D476" s="162" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="E476" s="155">
         <v>3</v>
@@ -65026,10 +65023,10 @@
         <v>354</v>
       </c>
       <c r="C477" s="157" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="D477" s="162" t="s">
-        <v>1931</v>
+        <v>1898</v>
       </c>
       <c r="E477" s="155">
         <v>3</v>
@@ -65044,10 +65041,10 @@
         <v>355</v>
       </c>
       <c r="C478" s="157" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D478" s="162" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="E478" s="155">
         <v>3</v>
@@ -65062,59 +65059,23 @@
         <v>356</v>
       </c>
       <c r="C479" s="157" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="D479" s="162" t="s">
-        <v>1898</v>
+        <v>1928</v>
       </c>
       <c r="E479" s="155">
         <v>3</v>
       </c>
       <c r="F479" s="155"/>
     </row>
-    <row r="480" spans="1:6" s="154" customFormat="1">
-      <c r="A480" s="152">
-        <v>509</v>
-      </c>
-      <c r="B480" s="152">
-        <v>357</v>
-      </c>
-      <c r="C480" s="157" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D480" s="162" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E480" s="155">
-        <v>3</v>
-      </c>
-      <c r="F480" s="155"/>
-    </row>
-    <row r="481" spans="1:6" s="154" customFormat="1">
-      <c r="A481" s="152">
-        <v>510</v>
-      </c>
-      <c r="B481" s="152">
-        <v>358</v>
-      </c>
-      <c r="C481" s="157" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D481" s="162" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E481" s="155">
-        <v>3</v>
-      </c>
-      <c r="F481" s="155"/>
-    </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="3:3">
       <c r="C482" s="13"/>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="3:3">
       <c r="C483" s="13"/>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="3:3">
       <c r="C484" s="13"/>
     </row>
   </sheetData>
@@ -73388,7 +73349,7 @@
         <v>795</v>
       </c>
       <c r="D387" s="13" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E387" s="27">
         <v>1000</v>
@@ -87712,7 +87673,7 @@
         <v>732</v>
       </c>
       <c r="D1109" s="14" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E1109" s="64" t="s">
         <v>1813</v>
@@ -87817,7 +87778,7 @@
         <v>877</v>
       </c>
       <c r="E1114" s="162" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1114" s="155">
         <v>1</v>
@@ -87835,10 +87796,10 @@
       </c>
       <c r="C1115" s="155"/>
       <c r="D1115" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1115" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1115" s="155">
         <v>1</v>
@@ -87859,7 +87820,7 @@
         <v>877</v>
       </c>
       <c r="E1116" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1116" s="155">
         <v>1</v>
@@ -87877,10 +87838,10 @@
       </c>
       <c r="C1117" s="155"/>
       <c r="D1117" s="157" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E1117" s="162" t="s">
         <v>1933</v>
-      </c>
-      <c r="E1117" s="162" t="s">
-        <v>1935</v>
       </c>
       <c r="F1117" s="155">
         <v>1</v>
@@ -87901,7 +87862,7 @@
         <v>877</v>
       </c>
       <c r="E1118" s="162" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F1118" s="155">
         <v>1</v>
@@ -87919,10 +87880,10 @@
       </c>
       <c r="C1119" s="155"/>
       <c r="D1119" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1119" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1119" s="155">
         <v>1</v>
@@ -87961,10 +87922,10 @@
       </c>
       <c r="C1121" s="155"/>
       <c r="D1121" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1121" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1121" s="155">
         <v>1</v>
@@ -87985,7 +87946,7 @@
         <v>877</v>
       </c>
       <c r="E1122" s="162" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F1122" s="155">
         <v>1</v>
@@ -88003,7 +87964,7 @@
       </c>
       <c r="C1123" s="155"/>
       <c r="D1123" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1123" s="162" t="s">
         <v>1897</v>
@@ -88027,7 +87988,7 @@
         <v>877</v>
       </c>
       <c r="E1124" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1124" s="155">
         <v>1</v>
@@ -88045,10 +88006,10 @@
       </c>
       <c r="C1125" s="155"/>
       <c r="D1125" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1125" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1125" s="155">
         <v>1</v>
@@ -88069,7 +88030,7 @@
         <v>877</v>
       </c>
       <c r="E1126" s="162" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F1126" s="155">
         <v>1</v>
@@ -88087,7 +88048,7 @@
       </c>
       <c r="C1127" s="155"/>
       <c r="D1127" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1127" s="162" t="s">
         <v>1897</v>
@@ -88111,7 +88072,7 @@
         <v>877</v>
       </c>
       <c r="E1128" s="162" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="F1128" s="155">
         <v>1</v>
@@ -88129,10 +88090,10 @@
       </c>
       <c r="C1129" s="155"/>
       <c r="D1129" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1129" s="162" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F1129" s="155">
         <v>1</v>
@@ -88153,7 +88114,7 @@
         <v>877</v>
       </c>
       <c r="E1130" s="162" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F1130" s="155">
         <v>1</v>
@@ -88171,10 +88132,10 @@
       </c>
       <c r="C1131" s="155"/>
       <c r="D1131" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1131" s="162" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="F1131" s="155">
         <v>1</v>
@@ -88195,7 +88156,7 @@
         <v>877</v>
       </c>
       <c r="E1132" s="162" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="F1132" s="155">
         <v>1</v>
@@ -88213,10 +88174,10 @@
       </c>
       <c r="C1133" s="155"/>
       <c r="D1133" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1133" s="162" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F1133" s="155">
         <v>1</v>
@@ -88237,7 +88198,7 @@
         <v>877</v>
       </c>
       <c r="E1134" s="162" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1134" s="155">
         <v>1</v>
@@ -88255,10 +88216,10 @@
       </c>
       <c r="C1135" s="155"/>
       <c r="D1135" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1135" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1135" s="155">
         <v>1</v>
@@ -88279,7 +88240,7 @@
         <v>877</v>
       </c>
       <c r="E1136" s="162" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1136" s="155">
         <v>1</v>
@@ -88297,10 +88258,10 @@
       </c>
       <c r="C1137" s="155"/>
       <c r="D1137" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1137" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1137" s="155">
         <v>1</v>
@@ -88321,7 +88282,7 @@
         <v>877</v>
       </c>
       <c r="E1138" s="162" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F1138" s="155">
         <v>1</v>
@@ -88339,10 +88300,10 @@
       </c>
       <c r="C1139" s="155"/>
       <c r="D1139" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1139" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1139" s="155">
         <v>1</v>
@@ -88363,7 +88324,7 @@
         <v>877</v>
       </c>
       <c r="E1140" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1140" s="155">
         <v>1</v>
@@ -88381,7 +88342,7 @@
       </c>
       <c r="C1141" s="155"/>
       <c r="D1141" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1141" s="162" t="s">
         <v>1897</v>
@@ -88405,7 +88366,7 @@
         <v>877</v>
       </c>
       <c r="E1142" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1142" s="155">
         <v>1</v>
@@ -88423,7 +88384,7 @@
       </c>
       <c r="C1143" s="155"/>
       <c r="D1143" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1143" s="162" t="s">
         <v>1897</v>
@@ -88447,7 +88408,7 @@
         <v>877</v>
       </c>
       <c r="E1144" s="162" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F1144" s="155">
         <v>1</v>
@@ -88465,10 +88426,10 @@
       </c>
       <c r="C1145" s="155"/>
       <c r="D1145" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1145" s="162" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="F1145" s="155">
         <v>1</v>
@@ -88489,7 +88450,7 @@
         <v>877</v>
       </c>
       <c r="E1146" s="162" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F1146" s="155">
         <v>1</v>
@@ -88507,7 +88468,7 @@
       </c>
       <c r="C1147" s="155"/>
       <c r="D1147" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1147" s="162" t="s">
         <v>1897</v>
@@ -88531,7 +88492,7 @@
         <v>877</v>
       </c>
       <c r="E1148" s="162" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F1148" s="155">
         <v>1</v>
@@ -88549,10 +88510,10 @@
       </c>
       <c r="C1149" s="155"/>
       <c r="D1149" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1149" s="162" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="F1149" s="155">
         <v>1</v>
@@ -88573,7 +88534,7 @@
         <v>877</v>
       </c>
       <c r="E1150" s="162" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="F1150" s="155">
         <v>1</v>
@@ -88591,10 +88552,10 @@
       </c>
       <c r="C1151" s="155"/>
       <c r="D1151" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1151" s="162" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="F1151" s="155">
         <v>1</v>
@@ -88615,7 +88576,7 @@
         <v>877</v>
       </c>
       <c r="E1152" s="162" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="F1152" s="155">
         <v>1</v>
@@ -88633,10 +88594,10 @@
       </c>
       <c r="C1153" s="155"/>
       <c r="D1153" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1153" s="162" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F1153" s="155">
         <v>1</v>
@@ -88657,7 +88618,7 @@
         <v>877</v>
       </c>
       <c r="E1154" s="162" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F1154" s="155">
         <v>1</v>
@@ -88675,10 +88636,10 @@
       </c>
       <c r="C1155" s="155"/>
       <c r="D1155" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1155" s="162" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F1155" s="155">
         <v>1</v>
@@ -88699,7 +88660,7 @@
         <v>877</v>
       </c>
       <c r="E1156" s="162" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="F1156" s="155">
         <v>1</v>
@@ -88717,10 +88678,10 @@
       </c>
       <c r="C1157" s="155"/>
       <c r="D1157" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1157" s="162" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F1157" s="155">
         <v>1</v>
@@ -88741,7 +88702,7 @@
         <v>877</v>
       </c>
       <c r="E1158" s="162" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="F1158" s="155">
         <v>1</v>
@@ -88759,10 +88720,10 @@
       </c>
       <c r="C1159" s="155"/>
       <c r="D1159" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1159" s="162" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F1159" s="155">
         <v>1</v>
@@ -88783,7 +88744,7 @@
         <v>877</v>
       </c>
       <c r="E1160" s="162" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="F1160" s="155">
         <v>1</v>
@@ -88801,10 +88762,10 @@
       </c>
       <c r="C1161" s="155"/>
       <c r="D1161" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1161" s="162" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F1161" s="155">
         <v>1</v>
@@ -88825,7 +88786,7 @@
         <v>877</v>
       </c>
       <c r="E1162" s="162" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="F1162" s="155">
         <v>1</v>
@@ -88843,10 +88804,10 @@
       </c>
       <c r="C1163" s="155"/>
       <c r="D1163" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1163" s="162" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="F1163" s="155">
         <v>1</v>
@@ -88867,7 +88828,7 @@
         <v>877</v>
       </c>
       <c r="E1164" s="162" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="F1164" s="155">
         <v>1</v>
@@ -88885,10 +88846,10 @@
       </c>
       <c r="C1165" s="155"/>
       <c r="D1165" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1165" s="162" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="F1165" s="155">
         <v>1</v>
@@ -88909,7 +88870,7 @@
         <v>877</v>
       </c>
       <c r="E1166" s="162" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="F1166" s="155">
         <v>1</v>
@@ -88927,7 +88888,7 @@
       </c>
       <c r="C1167" s="155"/>
       <c r="D1167" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1167" s="162" t="s">
         <v>1897</v>
@@ -88951,7 +88912,7 @@
         <v>877</v>
       </c>
       <c r="E1168" s="162" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="F1168" s="155">
         <v>1</v>
@@ -88969,10 +88930,10 @@
       </c>
       <c r="C1169" s="155"/>
       <c r="D1169" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1169" s="162" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="F1169" s="155">
         <v>1</v>
@@ -88993,7 +88954,7 @@
         <v>877</v>
       </c>
       <c r="E1170" s="162" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="F1170" s="155">
         <v>1</v>
@@ -89011,10 +88972,10 @@
       </c>
       <c r="C1171" s="155"/>
       <c r="D1171" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1171" s="162" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="F1171" s="155">
         <v>1</v>
@@ -89035,7 +88996,7 @@
         <v>877</v>
       </c>
       <c r="E1172" s="162" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="F1172" s="155">
         <v>1</v>
@@ -89053,10 +89014,10 @@
       </c>
       <c r="C1173" s="155"/>
       <c r="D1173" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1173" s="162" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="F1173" s="155">
         <v>1</v>
@@ -89077,7 +89038,7 @@
         <v>877</v>
       </c>
       <c r="E1174" s="162" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="F1174" s="155">
         <v>1</v>
@@ -89095,10 +89056,10 @@
       </c>
       <c r="C1175" s="155"/>
       <c r="D1175" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1175" s="162" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="F1175" s="155">
         <v>1</v>
@@ -89119,7 +89080,7 @@
         <v>877</v>
       </c>
       <c r="E1176" s="162" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="F1176" s="155">
         <v>1</v>
@@ -89137,10 +89098,10 @@
       </c>
       <c r="C1177" s="155"/>
       <c r="D1177" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1177" s="162" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="F1177" s="155">
         <v>1</v>
@@ -89161,7 +89122,7 @@
         <v>877</v>
       </c>
       <c r="E1178" s="162" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F1178" s="155">
         <v>1</v>
@@ -89179,10 +89140,10 @@
       </c>
       <c r="C1179" s="155"/>
       <c r="D1179" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1179" s="162" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="F1179" s="155">
         <v>1</v>
@@ -89203,7 +89164,7 @@
         <v>877</v>
       </c>
       <c r="E1180" s="162" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F1180" s="155">
         <v>1</v>
@@ -89221,10 +89182,10 @@
       </c>
       <c r="C1181" s="155"/>
       <c r="D1181" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1181" s="162" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F1181" s="155">
         <v>1</v>
@@ -89245,7 +89206,7 @@
         <v>877</v>
       </c>
       <c r="E1182" s="162" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F1182" s="155">
         <v>1</v>
@@ -89263,10 +89224,10 @@
       </c>
       <c r="C1183" s="155"/>
       <c r="D1183" s="157" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="E1183" s="162" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="F1183" s="155">
         <v>1</v>
@@ -89284,10 +89245,10 @@
       </c>
       <c r="C1184" s="171"/>
       <c r="D1184" s="175" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="E1184" s="176" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="F1184" s="171">
         <v>1</v>
@@ -89305,10 +89266,10 @@
       </c>
       <c r="C1185" s="171"/>
       <c r="D1185" s="175" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E1185" s="176" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="F1185" s="171">
         <v>1</v>
@@ -89329,7 +89290,7 @@
         <v>758</v>
       </c>
       <c r="E1186" s="176" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="F1186" s="171">
         <v>1</v>
@@ -89350,7 +89311,7 @@
         <v>758</v>
       </c>
       <c r="E1187" s="176" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F1187" s="171">
         <v>1</v>
@@ -89371,7 +89332,7 @@
         <v>758</v>
       </c>
       <c r="E1188" s="176" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F1188" s="171">
         <v>1</v>
@@ -89389,10 +89350,10 @@
       </c>
       <c r="C1189" s="175"/>
       <c r="D1189" s="171" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="E1189" s="176" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="F1189" s="171">
         <v>1</v>
